--- a/app/MLS_SpreadSheet_FieldsList.xlsx
+++ b/app/MLS_SpreadSheet_FieldsList.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ChromeX\MLSHelper\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E3DDE-7F7A-4803-9DEC-2D335810CA60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="19155" windowHeight="10560"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="19155" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="119">
   <si>
     <t>PicCount</t>
   </si>
@@ -335,13 +342,49 @@
   </si>
   <si>
     <t>TotalFloorArea:</t>
+  </si>
+  <si>
+    <t>Paragaon Spreadsheet Table Fields</t>
+  </si>
+  <si>
+    <t>neighborhood:</t>
+  </si>
+  <si>
+    <t>MLS#</t>
+  </si>
+  <si>
+    <t>LandValue</t>
+  </si>
+  <si>
+    <t>ImproveValue</t>
+  </si>
+  <si>
+    <t>BCAValue</t>
+  </si>
+  <si>
+    <t>Change%</t>
+  </si>
+  <si>
+    <t>Unit#</t>
+  </si>
+  <si>
+    <t>ColNo</t>
+  </si>
+  <si>
+    <t>ColName</t>
+  </si>
+  <si>
+    <t>ColLetter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public string </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,8 +520,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +710,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,17 +923,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,6 +994,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -977,7 +1044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,9 +1077,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,6 +1129,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,77 +1338,77 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6">
@@ -1322,16 +1423,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7">
@@ -1346,16 +1447,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E8">
@@ -1370,16 +1471,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E9">
@@ -1394,16 +1495,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10">
@@ -1411,16 +1512,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E11">
@@ -1428,16 +1529,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12">
@@ -1452,16 +1553,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13">
@@ -1469,16 +1570,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14">
@@ -1486,16 +1587,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E15">
@@ -1510,16 +1611,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E16">
@@ -1527,16 +1628,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17">
@@ -1544,16 +1645,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E18">
@@ -1568,16 +1669,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E19">
@@ -1592,16 +1693,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E20">
@@ -1616,16 +1717,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E21">
@@ -1640,16 +1741,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E22">
@@ -1664,16 +1765,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E23">
@@ -1688,16 +1789,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E24">
@@ -1712,16 +1813,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E25">
@@ -1736,16 +1837,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E26">
@@ -1760,16 +1861,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E27">
@@ -1784,16 +1885,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E28">
@@ -1801,16 +1902,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E29">
@@ -1818,16 +1919,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E30">
@@ -1835,16 +1936,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E31">
@@ -1859,16 +1960,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E32">
@@ -1883,16 +1984,16 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E33">
@@ -1907,16 +2008,16 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E34">
@@ -1924,16 +2025,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E35">
@@ -1941,16 +2042,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E36">
@@ -1958,16 +2059,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E37">
@@ -1975,16 +2076,16 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E38">
@@ -1992,16 +2093,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E39">
@@ -2009,16 +2110,16 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E40">
@@ -2026,16 +2127,16 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E41">
@@ -2043,16 +2144,16 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E42">
@@ -2060,16 +2161,16 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E43">
@@ -2077,16 +2178,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E44">
@@ -2094,16 +2195,16 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E45">
@@ -2111,16 +2212,16 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E46">
@@ -2128,16 +2229,16 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E47">
@@ -2145,16 +2246,16 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E48">
@@ -2162,16 +2263,16 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E49">
@@ -2186,16 +2287,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E50">
@@ -2203,16 +2304,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E51">
@@ -2227,16 +2328,16 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E52">
@@ -2251,16 +2352,16 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E53">
@@ -2275,16 +2376,16 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E54">
@@ -2292,16 +2393,16 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>55</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E55">
@@ -2309,16 +2410,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>57</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E56">
@@ -2326,16 +2427,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>58</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E57">
@@ -2343,16 +2444,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>59</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E58">
@@ -2360,16 +2461,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>60</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E59">
@@ -2377,16 +2478,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>61</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E60">
@@ -2394,16 +2495,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>62</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E61">
@@ -2411,16 +2512,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>63</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E62">
@@ -2428,16 +2529,16 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>64</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E63">
@@ -2445,16 +2546,16 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>65</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E64">
@@ -2462,16 +2563,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>66</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E65">
@@ -2479,16 +2580,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>67</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E66">
@@ -2496,16 +2597,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>68</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E67">
@@ -2513,16 +2614,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>69</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E68">
@@ -2530,16 +2631,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>70</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E69">
@@ -2547,16 +2648,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>71</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E70">
@@ -2564,16 +2665,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>72</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E71">
@@ -2581,16 +2682,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>73</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E72">
@@ -2598,16 +2699,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
-        <v>74</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E73">
@@ -2615,16 +2716,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>75</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E74">
@@ -2632,14 +2733,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>76</v>
-      </c>
-      <c r="B75" s="6" t="s">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E75">
@@ -2647,12 +2748,2634 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B7D0DD-7A6E-435B-83BB-E22ADAD390A7}">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,I2,4),"1","")</f>
+        <v>A</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE(L2, J2, " = ", "'", K2, "'", ";")</f>
+        <v>public string No = 'A';</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="14" t="str">
+        <f t="shared" ref="K3:K66" si="0">SUBSTITUTE(ADDRESS(1,I3,4),"1","")</f>
+        <v>B</v>
+      </c>
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="1">CONCATENATE(L3, J3, " = ", "'", K3, "'", ";")</f>
+        <v>public string MLS# = 'B';</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Status = 'C';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="L5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Address = 'D';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE(F6,E6,",")</f>
+        <v>status:8,</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="L6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>public string S/A = 'E';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G10" si="2">CONCATENATE(F7,E7,",")</f>
+        <v>address:9,</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Price = 'F';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>neighborhood:10,</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>public string PrcSqft = 'G';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>Price:11,</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>public string List Date = 'H';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>PricePSF:12,</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>public string DOM = 'I';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>public string CDOM = 'J';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Complex/Subdivision = 'K';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Tot BR = 'L';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(F14,E14,",")</f>
+        <v>complexName:16,</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Tot Baths = 'M';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>public string FlArTotFin = 'N';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="L16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Age = 'O';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="str">
+        <f>CONCATENATE(F17,E17,",")</f>
+        <v>TotalFloorArea:19,</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>public string StratMtFee = 'P';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Q</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>public string TypeDwel = 'Q';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="L19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Lot Sz (Sq.Ft.) = 'R';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G29" si="3">CONCATENATE(F20,E20,",")</f>
+        <v>houseType:22,</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>public string PID = 'S';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>lotSize:23,</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="L21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>public string LandValue = 'T';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>PID:24,</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>U</v>
+      </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>public string ImproveValue = 'U';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>landValue:25,</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="L23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>public string BCAValue = 'V';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>improvementValue:26,</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="L24" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Change% = 'W';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>totalValue:27,</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="L25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Room27Dim1 = 'X';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>changeValuePercent:28,</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="L26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Unit# = 'Y';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>strataPlan:29,</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Z</v>
+      </c>
+      <c r="L27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Address = 'Z';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>streetAddress:30,</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AA</v>
+      </c>
+      <c r="L28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>public string City = 'AA';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>unitNo:31,</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AB</v>
+      </c>
+      <c r="L29" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Area = 'AB';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ref="G30:G33" si="4">CONCATENATE(F30,E30,",")</f>
+        <v>city:32,</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="L30" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Postal Code = 'AC';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>subArea:33,</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AD</v>
+      </c>
+      <c r="L31" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>public string List Price = 'AD';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>postcode:34,</v>
+      </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AE</v>
+      </c>
+      <c r="L32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Prev Price = 'AE';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="4"/>
+        <v>ListPrice:35,</v>
+      </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AF</v>
+      </c>
+      <c r="L33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Price Date = 'AF';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AG</v>
+      </c>
+      <c r="L34" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Sold Date = 'AG';</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>37</v>
+      </c>
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AH</v>
+      </c>
+      <c r="L35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Sold Price = 'AH';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AI</v>
+      </c>
+      <c r="L36" t="s">
+        <v>118</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>public string SP Sqft = 'AI';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ref="G37:G38" si="5">CONCATENATE(F37,E37,",")</f>
+        <v>SoldPrice:39,</v>
+      </c>
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AJ</v>
+      </c>
+      <c r="L37" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Processed Date = 'AJ';</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="5"/>
+        <v>SoldPricePSF:40,</v>
+      </c>
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AK</v>
+      </c>
+      <c r="L38" t="s">
+        <v>118</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Entry Date = 'AK';</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>41</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AL</v>
+      </c>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Expiry Date = 'AL';</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AM</v>
+      </c>
+      <c r="L40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v>public string CDOMLS = 'AM';</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>43</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AN</v>
+      </c>
+      <c r="L41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Search Date = 'AN';</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42">
+        <v>44</v>
+      </c>
+      <c r="I42">
+        <v>41</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AO</v>
+      </c>
+      <c r="L42" t="s">
+        <v>118</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>public string SP/LP Ratio = 'AO';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AP</v>
+      </c>
+      <c r="L43" t="s">
+        <v>118</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>public string SP/OLP Ratio = 'AP';</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>46</v>
+      </c>
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AQ</v>
+      </c>
+      <c r="L44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Yr Blt = 'AQ';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>47</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AR</v>
+      </c>
+      <c r="L45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>public string TotFlArea = 'AR';</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AS</v>
+      </c>
+      <c r="L46" t="s">
+        <v>118</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>public string #Kitchens = 'AS';</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>49</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AT</v>
+      </c>
+      <c r="L47" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Lot Sz (Acres) = 'AT';</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AU</v>
+      </c>
+      <c r="L48" t="s">
+        <v>118</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Frontage - Feet = 'AU';</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <v>51</v>
+      </c>
+      <c r="I49">
+        <v>48</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AV</v>
+      </c>
+      <c r="L49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Depth = 'AV';</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>49</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AW</v>
+      </c>
+      <c r="L50" t="s">
+        <v>118</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Prop Type = 'AW';</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AX</v>
+      </c>
+      <c r="L51" t="s">
+        <v>118</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Room27Type = 'AX';</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>54</v>
+      </c>
+      <c r="I52">
+        <v>51</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AY</v>
+      </c>
+      <c r="L52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Parking Places - Covered = 'AY';</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>55</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>AZ</v>
+      </c>
+      <c r="L53" t="s">
+        <v>118</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Legal Description = 'AZ';</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54">
+        <v>56</v>
+      </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BA</v>
+      </c>
+      <c r="L54" t="s">
+        <v>118</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Title to Land = 'BA';</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <v>57</v>
+      </c>
+      <c r="I55">
+        <v>54</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BB</v>
+      </c>
+      <c r="L55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Units in Development = 'BB';</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>58</v>
+      </c>
+      <c r="I56">
+        <v>55</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BC</v>
+      </c>
+      <c r="L56" t="s">
+        <v>118</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Stories in Building = 'BC';</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57">
+        <v>59</v>
+      </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BD</v>
+      </c>
+      <c r="L57" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v>public string # or % of Rentals Allowed = 'BD';</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BE</v>
+      </c>
+      <c r="L58" t="s">
+        <v>118</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v>public string TotalPrkng = 'BE';</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>61</v>
+      </c>
+      <c r="I59">
+        <v>58</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BF</v>
+      </c>
+      <c r="L59" t="s">
+        <v>118</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Locker = 'BF';</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60">
+        <v>62</v>
+      </c>
+      <c r="I60">
+        <v>59</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K60" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BG</v>
+      </c>
+      <c r="L60" t="s">
+        <v>118</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v>public string List Firm 1 Code - Office Name = 'BG';</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61">
+        <v>63</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K61" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BH</v>
+      </c>
+      <c r="L61" t="s">
+        <v>118</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>public string List Sales Rep 1 - Agent Name = 'BH';</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62">
+        <v>64</v>
+      </c>
+      <c r="I62">
+        <v>61</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BI</v>
+      </c>
+      <c r="L62" t="s">
+        <v>118</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>public string List Firm 2 Code - Office Name = 'BI';</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63">
+        <v>65</v>
+      </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BJ</v>
+      </c>
+      <c r="L63" t="s">
+        <v>118</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v>public string List Sales Rep 2 - Agent Name = 'BJ';</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64">
+        <v>66</v>
+      </c>
+      <c r="I64">
+        <v>63</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BK</v>
+      </c>
+      <c r="L64" t="s">
+        <v>118</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Selling Office 1 - Office Name = 'BK';</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>64</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K65" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BL</v>
+      </c>
+      <c r="L65" t="s">
+        <v>118</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Sell Sales Rep 1 - Agent Name = 'BL';</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66">
+        <v>68</v>
+      </c>
+      <c r="I66">
+        <v>65</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K66" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>BM</v>
+      </c>
+      <c r="L66" t="s">
+        <v>118</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v>public string Selling Office 2 - Office Name = 'BM';</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67">
+        <v>69</v>
+      </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="14" t="str">
+        <f t="shared" ref="K67:K69" si="6">SUBSTITUTE(ADDRESS(1,I67,4),"1","")</f>
+        <v>BN</v>
+      </c>
+      <c r="L67" t="s">
+        <v>118</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M69" si="7">CONCATENATE(L67, J67, " = ", "'", K67, "'", ";")</f>
+        <v>public string Sell Sales Rep 2 - Agent Name = 'BN';</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>BO</v>
+      </c>
+      <c r="L68" t="s">
+        <v>118</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="7"/>
+        <v>public string Owner Name = 'BO';</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69">
+        <v>71</v>
+      </c>
+      <c r="I69">
+        <v>68</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>BP</v>
+      </c>
+      <c r="L69" t="s">
+        <v>118</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="7"/>
+        <v>public string Buyer = 'BP';</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72">
+        <v>74</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E76">

--- a/app/MLS_SpreadSheet_FieldsList.xlsx
+++ b/app/MLS_SpreadSheet_FieldsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ChromeX\MLSHelper\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E3DDE-7F7A-4803-9DEC-2D335810CA60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA63F57B-E55B-4208-9087-FC63C7BF0F5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="150" windowWidth="19155" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2771,7 +2771,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/MLS_SpreadSheet_FieldsList.xlsx
+++ b/app/MLS_SpreadSheet_FieldsList.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ChromeX\MLSHelper\app\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA63F57B-E55B-4208-9087-FC63C7BF0F5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="19155" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="150" windowWidth="27270" windowHeight="16965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Spreadsheet View Fields" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="209">
   <si>
     <t>PicCount</t>
   </si>
@@ -378,13 +380,283 @@
   </si>
   <si>
     <t xml:space="preserve">public string </t>
+  </si>
+  <si>
+    <t>YearBuilt:</t>
+  </si>
+  <si>
+    <t>YearBuilt: 48,</t>
+  </si>
+  <si>
+    <t>Storeys:</t>
+  </si>
+  <si>
+    <t>Storeys: 60,</t>
+  </si>
+  <si>
+    <t>Units:</t>
+  </si>
+  <si>
+    <t>Units: 59,</t>
+  </si>
+  <si>
+    <t>TitleToLand:</t>
+  </si>
+  <si>
+    <t>TitleToLand: 58,</t>
+  </si>
+  <si>
+    <t>PropertyType:</t>
+  </si>
+  <si>
+    <t>PropertyTyep: 54,</t>
+  </si>
+  <si>
+    <t>BylawRentalRestriction:</t>
+  </si>
+  <si>
+    <t>BylawRentalRestriction: 61,</t>
+  </si>
+  <si>
+    <t>complexInfo{}</t>
+  </si>
+  <si>
+    <t>262450640:0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "R2429013",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "0",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "//cdnparap130.paragonrels.com/ParagonImages/Static/120/90/797b8e5ee4431539cd9c4196d895459f/NoPhotoAvailable.jpg",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "197,61,10,11,135,222,9,60,179,178,257,175,174",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "A",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "1704 2200 DOUGLAS ROAD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Brentwood Park",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "$805,000",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "$751.63",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "1/15/2020",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "2",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "1,071",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "8",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "$322.19",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Apartment/Condo",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "0.00",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "028-742-974",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Burnaby",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Burnaby North",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "V5C 0G8",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "$0",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "1/15/2020 12:00 PM",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "5/15/2020",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "2012",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Residential Attached",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "STRATA LOT 104, PLAN BCS4311, DISTRICT LOT 125, GROUP 1, NEW WESTMINSTER LAND DISTRICT, TOGETHER WITH AN INTEREST IN THE COMMON PROPERTY IN PROPORTION TO THE UNIT ENTITLEMENT OF THE STRATA LOT AS SHOWN ON FORM V",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Freehold Strata",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nu Stream Realty Inc.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Tracy Niu PREC*",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "**Privacy Protected** WANYUN ZHANG",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "No",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "APT",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "NO, PETY, RENY",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Garage; Underground",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "tracyniuteam@gmail.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Greater Vancouver",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "BC",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Concrete",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Garden, In Suite Laundry, Playground, Recreation Center",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "statusColor1 "</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DisplayId</t>
+  </si>
+  <si>
+    <t>Action Icons</t>
+  </si>
+  <si>
+    <t>Complex/Subdivision Name</t>
+  </si>
+  <si>
+    <t>List Desig Agt 1 - Agent Name</t>
+  </si>
+  <si>
+    <t>List Desig Agt 2 - Agent Name</t>
+  </si>
+  <si>
+    <t>Agent Hit Count</t>
+  </si>
+  <si>
+    <t>List Desig Agt 1 - E-mail</t>
+  </si>
+  <si>
+    <t>Sell Sales Rep 1 - E-mail</t>
+  </si>
+  <si>
+    <t>Mgmt. Co Name</t>
+  </si>
+  <si>
+    <t>Mgmt. Co Phone#</t>
+  </si>
+  <si>
+    <t># of Pets</t>
+  </si>
+  <si>
+    <t>Restricted Age</t>
+  </si>
+  <si>
+    <t>Neighborhood Code</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Rain Screen</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>Site Influences</t>
+  </si>
+  <si>
+    <t>row_highlight</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Col No</t>
+  </si>
+  <si>
+    <t>CellIndex</t>
+  </si>
+  <si>
+    <t>Col Name</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Select Check</t>
+  </si>
+  <si>
+    <t>input of check</t>
+  </si>
+  <si>
+    <t>MLSHelper::Library.js::setCols column numbers mapping to column names</t>
+  </si>
+  <si>
+    <t>StrataFeePSF: 55,</t>
+  </si>
+  <si>
+    <t>StrataFeePerSF:</t>
+  </si>
+  <si>
+    <t>StrataFee</t>
+  </si>
+  <si>
+    <t>StrataFee: 21,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +798,32 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,8 +1015,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -878,6 +1186,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -923,7 +1273,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -942,6 +1292,23 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1044,7 +1411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,26 +1444,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,23 +1479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1321,10 +1654,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27:G27"/>
     </sheetView>
   </sheetViews>
@@ -2767,2622 +3100,3880 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B7D0DD-7A6E-435B-83BB-E22ADAD390A7}">
-  <dimension ref="A1:M76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="47.7109375" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O2" t="s">
         <v>116</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="E3" s="10"/>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="K3" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="E4" s="10"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="E5" s="10"/>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="E6" s="10"/>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I2">
+      <c r="E7" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,I2,4),"1","")</f>
+      <c r="P7" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,N7,4),"1","")</f>
         <v>A</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q7" t="s">
         <v>118</v>
       </c>
-      <c r="M2" t="str">
-        <f>CONCATENATE(L2, J2, " = ", "'", K2, "'", ";")</f>
+      <c r="R7" t="str">
+        <f>CONCATENATE(Q7, O7, " = ", "'", P7, "'", ";")</f>
         <v>public string No = 'A';</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="14" t="str">
-        <f t="shared" ref="K3:K66" si="0">SUBSTITUTE(ADDRESS(1,I3,4),"1","")</f>
+      <c r="P8" s="14" t="str">
+        <f t="shared" ref="P8:P71" si="0">SUBSTITUTE(ADDRESS(1,N8,4),"1","")</f>
         <v>B</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q8" t="s">
         <v>118</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="1">CONCATENATE(L3, J3, " = ", "'", K3, "'", ";")</f>
+      <c r="R8" t="str">
+        <f t="shared" ref="R8:R71" si="1">CONCATENATE(Q8, O8, " = ", "'", P8, "'", ";")</f>
         <v>public string MLS# = 'B';</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="14" t="str">
+      <c r="P9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Q9" t="s">
         <v>118</v>
       </c>
-      <c r="M4" t="str">
+      <c r="R9" t="str">
         <f t="shared" si="1"/>
         <v>public string Status = 'C';</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="14" t="str">
+      <c r="P10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="L5" t="s">
+      <c r="Q10" t="s">
         <v>118</v>
       </c>
-      <c r="M5" t="str">
+      <c r="R10" t="str">
         <f t="shared" si="1"/>
         <v>public string Address = 'D';</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E11" s="15">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="str">
-        <f>CONCATENATE(F6,E6,",")</f>
+      <c r="G11" t="str">
+        <f>CONCATENATE(F11,E11,",")</f>
         <v>status:8,</v>
       </c>
-      <c r="I6">
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="14" t="str">
+      <c r="P11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q11" t="s">
         <v>118</v>
       </c>
-      <c r="M6" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="1"/>
         <v>public string S/A = 'E';</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E12" s="15">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G10" si="2">CONCATENATE(F7,E7,",")</f>
+      <c r="G12" s="17" t="str">
+        <f t="shared" ref="G12:G15" si="2">CONCATENATE(F12,E12,",")</f>
         <v>address:9,</v>
       </c>
-      <c r="I7">
+      <c r="H12" s="17">
+        <v>9</v>
+      </c>
+      <c r="I12" s="17">
+        <v>7</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="O12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="14" t="str">
+      <c r="P12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="L7" t="s">
+      <c r="Q12" t="s">
         <v>118</v>
       </c>
-      <c r="M7" t="str">
+      <c r="R12" t="str">
         <f t="shared" si="1"/>
         <v>public string Price = 'F';</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E13" s="15">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>neighborhood:10,</v>
       </c>
-      <c r="I8">
+      <c r="H13" s="17">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13">
         <v>7</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="O13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="14" t="str">
+      <c r="P13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>G</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Q13" t="s">
         <v>118</v>
       </c>
-      <c r="M8" t="str">
+      <c r="R13" t="str">
         <f t="shared" si="1"/>
         <v>public string PrcSqft = 'G';</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E14" s="15">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="2"/>
         <v>Price:11,</v>
       </c>
-      <c r="I9">
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="14" t="str">
+      <c r="P14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Q14" t="s">
         <v>118</v>
       </c>
-      <c r="M9" t="str">
+      <c r="R14" t="str">
         <f t="shared" si="1"/>
         <v>public string List Date = 'H';</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E10">
+      <c r="E15" s="15">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="2"/>
         <v>PricePSF:12,</v>
       </c>
-      <c r="I10">
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15">
         <v>9</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="14" t="str">
+      <c r="P15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>I</v>
       </c>
-      <c r="L10" t="s">
+      <c r="Q15" t="s">
         <v>118</v>
       </c>
-      <c r="M10" t="str">
+      <c r="R15" t="str">
         <f t="shared" si="1"/>
         <v>public string DOM = 'I';</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E16" s="15">
         <v>13</v>
       </c>
-      <c r="I11">
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16">
         <v>10</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="14" t="str">
+      <c r="P16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>J</v>
       </c>
-      <c r="L11" t="s">
+      <c r="Q16" t="s">
         <v>118</v>
       </c>
-      <c r="M11" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="1"/>
         <v>public string CDOM = 'J';</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E17" s="15">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17">
         <v>11</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="14" t="str">
+      <c r="P17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="L12" t="s">
+      <c r="Q17" t="s">
         <v>118</v>
       </c>
-      <c r="M12" t="str">
+      <c r="R17" t="str">
         <f t="shared" si="1"/>
         <v>public string Complex/Subdivision = 'K';</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E13">
+      <c r="E18" s="15">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18">
         <v>12</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="O18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="14" t="str">
+      <c r="P18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="L13" t="s">
+      <c r="Q18" t="s">
         <v>118</v>
       </c>
-      <c r="M13" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="1"/>
         <v>public string Tot BR = 'L';</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E19" s="15">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F19" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G14" t="str">
-        <f>CONCATENATE(F14,E14,",")</f>
+      <c r="G19" s="17" t="str">
+        <f>CONCATENATE(F19,E19,",")</f>
         <v>complexName:16,</v>
       </c>
-      <c r="I14">
+      <c r="H19" s="17">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17">
+        <v>14</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19">
         <v>13</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="O19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="14" t="str">
+      <c r="P19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="L14" t="s">
+      <c r="Q19" t="s">
         <v>118</v>
       </c>
-      <c r="M14" t="str">
+      <c r="R19" t="str">
         <f t="shared" si="1"/>
         <v>public string Tot Baths = 'M';</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E20" s="15">
         <v>17</v>
       </c>
-      <c r="I15">
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20">
         <v>14</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="14" t="str">
+      <c r="P20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>N</v>
       </c>
-      <c r="L15" t="s">
+      <c r="Q20" t="s">
         <v>118</v>
       </c>
-      <c r="M15" t="str">
+      <c r="R20" t="str">
         <f t="shared" si="1"/>
         <v>public string FlArTotFin = 'N';</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="E21" s="15">
         <v>18</v>
       </c>
-      <c r="I16">
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21">
         <v>15</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="O21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="14" t="str">
+      <c r="P21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>O</v>
       </c>
-      <c r="L16" t="s">
+      <c r="Q21" t="s">
         <v>118</v>
       </c>
-      <c r="M16" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="1"/>
         <v>public string Age = 'O';</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17">
+      <c r="E22" s="15">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>106</v>
       </c>
-      <c r="G17" t="str">
-        <f>CONCATENATE(F17,E17,",")</f>
+      <c r="G22" t="str">
+        <f>CONCATENATE(F22,E22,",")</f>
         <v>TotalFloorArea:19,</v>
       </c>
-      <c r="I17">
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22">
         <v>16</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="O22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="14" t="str">
+      <c r="P22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="L17" t="s">
+      <c r="Q22" t="s">
         <v>118</v>
       </c>
-      <c r="M17" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="1"/>
         <v>public string StratMtFee = 'P';</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E23" s="15">
         <v>20</v>
       </c>
-      <c r="I18">
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23">
         <v>17</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="O23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="14" t="str">
+      <c r="P23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Q</v>
       </c>
-      <c r="L18" t="s">
+      <c r="Q23" t="s">
         <v>118</v>
       </c>
-      <c r="M18" t="str">
+      <c r="R23" t="str">
         <f t="shared" si="1"/>
         <v>public string TypeDwel = 'Q';</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="E24" s="15">
         <v>21</v>
       </c>
-      <c r="I19">
+      <c r="F24" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="17">
+        <v>21</v>
+      </c>
+      <c r="I24" s="17">
+        <v>19</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24">
         <v>18</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="O24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="14" t="str">
+      <c r="P24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>R</v>
       </c>
-      <c r="L19" t="s">
+      <c r="Q24" t="s">
         <v>118</v>
       </c>
-      <c r="M19" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="1"/>
         <v>public string Lot Sz (Sq.Ft.) = 'R';</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E25" s="15">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F25" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" ref="G20:G29" si="3">CONCATENATE(F20,E20,",")</f>
+      <c r="G25" s="17" t="str">
+        <f t="shared" ref="G25:G34" si="3">CONCATENATE(F25,E25,",")</f>
         <v>houseType:22,</v>
       </c>
-      <c r="I20">
+      <c r="H25" s="17">
+        <v>22</v>
+      </c>
+      <c r="I25" s="17">
+        <v>20</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25">
         <v>19</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="14" t="str">
+      <c r="P25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>S</v>
       </c>
-      <c r="L20" t="s">
+      <c r="Q25" t="s">
         <v>118</v>
       </c>
-      <c r="M20" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="1"/>
         <v>public string PID = 'S';</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E26" s="15">
         <v>23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>92</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="3"/>
         <v>lotSize:23,</v>
       </c>
-      <c r="I21">
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26">
         <v>20</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="O26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="14" t="str">
+      <c r="P26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="L21" t="s">
+      <c r="Q26" t="s">
         <v>118</v>
       </c>
-      <c r="M21" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="1"/>
         <v>public string LandValue = 'T';</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22">
+      <c r="E27" s="15">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F27" t="s">
         <v>93</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="3"/>
         <v>PID:24,</v>
       </c>
-      <c r="I22">
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s">
+        <v>150</v>
+      </c>
+      <c r="N27">
         <v>21</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="O27" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="14" t="str">
+      <c r="P27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>U</v>
       </c>
-      <c r="L22" t="s">
+      <c r="Q27" t="s">
         <v>118</v>
       </c>
-      <c r="M22" t="str">
+      <c r="R27" t="str">
         <f t="shared" si="1"/>
         <v>public string ImproveValue = 'U';</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23">
+      <c r="E28" s="15">
         <v>25</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" t="s">
         <v>94</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="3"/>
         <v>landValue:25,</v>
       </c>
-      <c r="I23">
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>23</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N28">
         <v>22</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="O28" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="K23" s="14" t="str">
+      <c r="P28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>V</v>
       </c>
-      <c r="L23" t="s">
+      <c r="Q28" t="s">
         <v>118</v>
       </c>
-      <c r="M23" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="1"/>
         <v>public string BCAValue = 'V';</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E24">
+      <c r="E29" s="15">
         <v>26</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F29" t="s">
         <v>95</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="3"/>
         <v>improvementValue:26,</v>
       </c>
-      <c r="I24">
+      <c r="H29">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>24</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29">
         <v>23</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="O29" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="14" t="str">
+      <c r="P29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>W</v>
       </c>
-      <c r="L24" t="s">
+      <c r="Q29" t="s">
         <v>118</v>
       </c>
-      <c r="M24" t="str">
+      <c r="R29" t="str">
         <f t="shared" si="1"/>
         <v>public string Change% = 'W';</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E25">
+      <c r="E30" s="15">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F30" t="s">
         <v>96</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="3"/>
         <v>totalValue:27,</v>
       </c>
-      <c r="I25">
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>25</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30">
         <v>24</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="O30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="14" t="str">
+      <c r="P30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="L25" t="s">
+      <c r="Q30" t="s">
         <v>118</v>
       </c>
-      <c r="M25" t="str">
+      <c r="R30" t="str">
         <f t="shared" si="1"/>
         <v>public string Room27Dim1 = 'X';</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E26">
+      <c r="E31" s="15">
         <v>28</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F31" t="s">
         <v>97</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="3"/>
         <v>changeValuePercent:28,</v>
       </c>
-      <c r="I26">
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>26</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31">
         <v>25</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="O31" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="14" t="str">
+      <c r="P31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="L26" t="s">
+      <c r="Q31" t="s">
         <v>118</v>
       </c>
-      <c r="M26" t="str">
+      <c r="R31" t="str">
         <f t="shared" si="1"/>
         <v>public string Unit# = 'Y';</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E27">
+      <c r="E32" s="15">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G32" s="17" t="str">
         <f t="shared" si="3"/>
         <v>strataPlan:29,</v>
       </c>
-      <c r="I27">
+      <c r="H32" s="17">
+        <v>29</v>
+      </c>
+      <c r="I32" s="17">
+        <v>27</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N32">
         <v>26</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="O32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="14" t="str">
+      <c r="P32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Z</v>
       </c>
-      <c r="L27" t="s">
+      <c r="Q32" t="s">
         <v>118</v>
       </c>
-      <c r="M27" t="str">
+      <c r="R32" t="str">
         <f t="shared" si="1"/>
         <v>public string Address = 'Z';</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28">
+      <c r="E33" s="15">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F33" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G33" s="17" t="str">
         <f t="shared" si="3"/>
         <v>streetAddress:30,</v>
       </c>
-      <c r="I28">
+      <c r="H33" s="17">
+        <v>30</v>
+      </c>
+      <c r="I33" s="17">
+        <v>28</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N33">
         <v>27</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="14" t="str">
+      <c r="P33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AA</v>
       </c>
-      <c r="L28" t="s">
+      <c r="Q33" t="s">
         <v>118</v>
       </c>
-      <c r="M28" t="str">
+      <c r="R33" t="str">
         <f t="shared" si="1"/>
         <v>public string City = 'AA';</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E29">
+      <c r="E34" s="15">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F34" t="s">
         <v>104</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="3"/>
         <v>unitNo:31,</v>
       </c>
-      <c r="I29">
+      <c r="H34">
+        <v>31</v>
+      </c>
+      <c r="I34">
+        <v>29</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N34">
         <v>28</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="O34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="14" t="str">
+      <c r="P34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AB</v>
       </c>
-      <c r="L29" t="s">
+      <c r="Q34" t="s">
         <v>118</v>
       </c>
-      <c r="M29" t="str">
+      <c r="R34" t="str">
         <f t="shared" si="1"/>
         <v>public string Area = 'AB';</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30">
+      <c r="E35" s="15">
         <v>32</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F35" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" ref="G30:G33" si="4">CONCATENATE(F30,E30,",")</f>
+      <c r="G35" s="17" t="str">
+        <f t="shared" ref="G35:G38" si="4">CONCATENATE(F35,E35,",")</f>
         <v>city:32,</v>
       </c>
-      <c r="I30">
+      <c r="H35" s="17">
+        <v>32</v>
+      </c>
+      <c r="I35" s="17">
+        <v>30</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35">
         <v>29</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="O35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="14" t="str">
+      <c r="P35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AC</v>
       </c>
-      <c r="L30" t="s">
+      <c r="Q35" t="s">
         <v>118</v>
       </c>
-      <c r="M30" t="str">
+      <c r="R35" t="str">
         <f t="shared" si="1"/>
         <v>public string Postal Code = 'AC';</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31">
+      <c r="E36" s="15">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G36" s="17" t="str">
         <f t="shared" si="4"/>
         <v>subArea:33,</v>
       </c>
-      <c r="I31">
+      <c r="H36" s="17">
+        <v>33</v>
+      </c>
+      <c r="I36" s="17">
+        <v>31</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36">
         <v>30</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="O36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="14" t="str">
+      <c r="P36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AD</v>
       </c>
-      <c r="L31" t="s">
+      <c r="Q36" t="s">
         <v>118</v>
       </c>
-      <c r="M31" t="str">
+      <c r="R36" t="str">
         <f t="shared" si="1"/>
         <v>public string List Price = 'AD';</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32">
+      <c r="E37" s="15">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F37" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G37" s="17" t="str">
         <f t="shared" si="4"/>
         <v>postcode:34,</v>
       </c>
-      <c r="I32">
+      <c r="H37" s="17">
+        <v>34</v>
+      </c>
+      <c r="I37" s="17">
+        <v>32</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N37">
         <v>31</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="O37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="14" t="str">
+      <c r="P37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AE</v>
       </c>
-      <c r="L32" t="s">
+      <c r="Q37" t="s">
         <v>118</v>
       </c>
-      <c r="M32" t="str">
+      <c r="R37" t="str">
         <f t="shared" si="1"/>
         <v>public string Prev Price = 'AE';</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E33">
+      <c r="E38" s="15">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F38" t="s">
         <v>89</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="4"/>
         <v>ListPrice:35,</v>
       </c>
-      <c r="I33">
+      <c r="H38">
+        <v>35</v>
+      </c>
+      <c r="I38">
+        <v>33</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N38">
         <v>32</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="O38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="14" t="str">
+      <c r="P38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AF</v>
       </c>
-      <c r="L33" t="s">
+      <c r="Q38" t="s">
         <v>118</v>
       </c>
-      <c r="M33" t="str">
+      <c r="R38" t="str">
         <f t="shared" si="1"/>
         <v>public string Price Date = 'AF';</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E34">
+      <c r="E39" s="15">
         <v>36</v>
       </c>
-      <c r="I34">
+      <c r="H39">
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>34</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>154</v>
+      </c>
+      <c r="N39">
         <v>33</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="O39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="14" t="str">
+      <c r="P39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AG</v>
       </c>
-      <c r="L34" t="s">
+      <c r="Q39" t="s">
         <v>118</v>
       </c>
-      <c r="M34" t="str">
+      <c r="R39" t="str">
         <f t="shared" si="1"/>
         <v>public string Sold Date = 'AG';</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E35">
+      <c r="E40" s="15">
         <v>37</v>
       </c>
-      <c r="I35">
+      <c r="H40">
+        <v>37</v>
+      </c>
+      <c r="I40">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40">
         <v>34</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="O40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="14" t="str">
+      <c r="P40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AH</v>
       </c>
-      <c r="L35" t="s">
+      <c r="Q40" t="s">
         <v>118</v>
       </c>
-      <c r="M35" t="str">
+      <c r="R40" t="str">
         <f t="shared" si="1"/>
         <v>public string Sold Price = 'AH';</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E36">
+      <c r="E41" s="15">
         <v>38</v>
       </c>
-      <c r="I36">
+      <c r="H41">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>143</v>
+      </c>
+      <c r="N41">
         <v>35</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="O41" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="14" t="str">
+      <c r="P41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AI</v>
       </c>
-      <c r="L36" t="s">
+      <c r="Q41" t="s">
         <v>118</v>
       </c>
-      <c r="M36" t="str">
+      <c r="R41" t="str">
         <f t="shared" si="1"/>
         <v>public string SP Sqft = 'AI';</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E37">
+      <c r="E42" s="15">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F42" t="s">
         <v>88</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" ref="G37:G38" si="5">CONCATENATE(F37,E37,",")</f>
+      <c r="G42" t="str">
+        <f t="shared" ref="G42:G43" si="5">CONCATENATE(F42,E42,",")</f>
         <v>SoldPrice:39,</v>
       </c>
-      <c r="I37">
+      <c r="H42">
+        <v>39</v>
+      </c>
+      <c r="I42">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>143</v>
+      </c>
+      <c r="N42">
         <v>36</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="O42" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="14" t="str">
+      <c r="P42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AJ</v>
       </c>
-      <c r="L37" t="s">
+      <c r="Q42" t="s">
         <v>118</v>
       </c>
-      <c r="M37" t="str">
+      <c r="R42" t="str">
         <f t="shared" si="1"/>
         <v>public string Processed Date = 'AJ';</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E38">
+      <c r="E43" s="15">
         <v>40</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F43" t="s">
         <v>91</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="5"/>
         <v>SoldPricePSF:40,</v>
       </c>
-      <c r="I38">
+      <c r="H43">
+        <v>40</v>
+      </c>
+      <c r="I43">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" t="s">
+        <v>143</v>
+      </c>
+      <c r="N43">
         <v>37</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="O43" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="14" t="str">
+      <c r="P43" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AK</v>
       </c>
-      <c r="L38" t="s">
+      <c r="Q43" t="s">
         <v>118</v>
       </c>
-      <c r="M38" t="str">
+      <c r="R43" t="str">
         <f t="shared" si="1"/>
         <v>public string Entry Date = 'AK';</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E39">
+      <c r="E44" s="15">
         <v>41</v>
       </c>
-      <c r="I39">
+      <c r="H44">
+        <v>41</v>
+      </c>
+      <c r="I44">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>143</v>
+      </c>
+      <c r="N44">
         <v>38</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="O44" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="14" t="str">
+      <c r="P44" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AL</v>
       </c>
-      <c r="L39" t="s">
+      <c r="Q44" t="s">
         <v>118</v>
       </c>
-      <c r="M39" t="str">
+      <c r="R44" t="str">
         <f t="shared" si="1"/>
         <v>public string Expiry Date = 'AL';</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E40">
+      <c r="E45" s="15">
         <v>42</v>
       </c>
-      <c r="I40">
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>155</v>
+      </c>
+      <c r="N45">
         <v>39</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="O45" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K40" s="14" t="str">
+      <c r="P45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AM</v>
       </c>
-      <c r="L40" t="s">
+      <c r="Q45" t="s">
         <v>118</v>
       </c>
-      <c r="M40" t="str">
+      <c r="R45" t="str">
         <f t="shared" si="1"/>
         <v>public string CDOMLS = 'AM';</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E41">
+      <c r="E46" s="15">
         <v>43</v>
       </c>
-      <c r="I41">
+      <c r="H46">
+        <v>43</v>
+      </c>
+      <c r="I46">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N46">
         <v>40</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="O46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="14" t="str">
+      <c r="P46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AN</v>
       </c>
-      <c r="L41" t="s">
+      <c r="Q46" t="s">
         <v>118</v>
       </c>
-      <c r="M41" t="str">
+      <c r="R46" t="str">
         <f t="shared" si="1"/>
         <v>public string Search Date = 'AN';</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E42">
+      <c r="E47" s="15">
         <v>44</v>
       </c>
-      <c r="I42">
+      <c r="H47">
+        <v>44</v>
+      </c>
+      <c r="I47">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" t="s">
+        <v>143</v>
+      </c>
+      <c r="N47">
         <v>41</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="O47" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="14" t="str">
+      <c r="P47" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AO</v>
       </c>
-      <c r="L42" t="s">
+      <c r="Q47" t="s">
         <v>118</v>
       </c>
-      <c r="M42" t="str">
+      <c r="R47" t="str">
         <f t="shared" si="1"/>
         <v>public string SP/LP Ratio = 'AO';</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E43">
+      <c r="E48" s="15">
         <v>45</v>
       </c>
-      <c r="I43">
+      <c r="H48">
+        <v>45</v>
+      </c>
+      <c r="I48">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" t="s">
+        <v>143</v>
+      </c>
+      <c r="N48">
         <v>42</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="O48" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="14" t="str">
+      <c r="P48" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AP</v>
       </c>
-      <c r="L43" t="s">
+      <c r="Q48" t="s">
         <v>118</v>
       </c>
-      <c r="M43" t="str">
+      <c r="R48" t="str">
         <f t="shared" si="1"/>
         <v>public string SP/OLP Ratio = 'AP';</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E44">
+      <c r="E49" s="15">
         <v>46</v>
       </c>
-      <c r="I44">
+      <c r="H49">
+        <v>46</v>
+      </c>
+      <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" t="s">
+        <v>143</v>
+      </c>
+      <c r="N49">
         <v>43</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="O49" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="14" t="str">
+      <c r="P49" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AQ</v>
       </c>
-      <c r="L44" t="s">
+      <c r="Q49" t="s">
         <v>118</v>
       </c>
-      <c r="M44" t="str">
+      <c r="R49" t="str">
         <f t="shared" si="1"/>
         <v>public string Yr Blt = 'AQ';</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E45">
+      <c r="E50" s="15">
         <v>47</v>
       </c>
-      <c r="I45">
+      <c r="H50">
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" t="s">
+        <v>143</v>
+      </c>
+      <c r="N50">
         <v>44</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="O50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="14" t="str">
+      <c r="P50" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AR</v>
       </c>
-      <c r="L45" t="s">
+      <c r="Q50" t="s">
         <v>118</v>
       </c>
-      <c r="M45" t="str">
+      <c r="R50" t="str">
         <f t="shared" si="1"/>
         <v>public string TotFlArea = 'AR';</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E46">
+      <c r="E51" s="15">
         <v>48</v>
       </c>
-      <c r="I46">
+      <c r="F51" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="17">
+        <v>48</v>
+      </c>
+      <c r="I51" s="17">
+        <v>46</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51">
         <v>45</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="O51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K46" s="14" t="str">
+      <c r="P51" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AS</v>
       </c>
-      <c r="L46" t="s">
+      <c r="Q51" t="s">
         <v>118</v>
       </c>
-      <c r="M46" t="str">
+      <c r="R51" t="str">
         <f t="shared" si="1"/>
         <v>public string #Kitchens = 'AS';</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
+      <c r="E52" s="15">
         <v>49</v>
       </c>
-      <c r="I47">
+      <c r="H52">
+        <v>49</v>
+      </c>
+      <c r="I52">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" t="s">
+        <v>145</v>
+      </c>
+      <c r="N52">
         <v>46</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="O52" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="14" t="str">
+      <c r="P52" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AT</v>
       </c>
-      <c r="L47" t="s">
+      <c r="Q52" t="s">
         <v>118</v>
       </c>
-      <c r="M47" t="str">
+      <c r="R52" t="str">
         <f t="shared" si="1"/>
         <v>public string Lot Sz (Acres) = 'AT';</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E48">
+      <c r="E53" s="15">
         <v>50</v>
       </c>
-      <c r="I48">
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>48</v>
+      </c>
+      <c r="J53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" t="s">
+        <v>158</v>
+      </c>
+      <c r="N53">
         <v>47</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="O53" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K48" s="14" t="str">
+      <c r="P53" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AU</v>
       </c>
-      <c r="L48" t="s">
+      <c r="Q53" t="s">
         <v>118</v>
       </c>
-      <c r="M48" t="str">
+      <c r="R53" t="str">
         <f t="shared" si="1"/>
         <v>public string Frontage - Feet = 'AU';</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E49">
+      <c r="E54" s="15">
         <v>51</v>
       </c>
-      <c r="I49">
+      <c r="H54">
+        <v>51</v>
+      </c>
+      <c r="I54">
+        <v>49</v>
+      </c>
+      <c r="J54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N54">
         <v>48</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="O54" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="14" t="str">
+      <c r="P54" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AV</v>
       </c>
-      <c r="L49" t="s">
+      <c r="Q54" t="s">
         <v>118</v>
       </c>
-      <c r="M49" t="str">
+      <c r="R54" t="str">
         <f t="shared" si="1"/>
         <v>public string Depth = 'AV';</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E50">
+      <c r="E55" s="15">
         <v>52</v>
       </c>
-      <c r="I50">
+      <c r="H55">
+        <v>52</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55">
         <v>49</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="O55" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K50" s="14" t="str">
+      <c r="P55" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AW</v>
       </c>
-      <c r="L50" t="s">
+      <c r="Q55" t="s">
         <v>118</v>
       </c>
-      <c r="M50" t="str">
+      <c r="R55" t="str">
         <f t="shared" si="1"/>
         <v>public string Prop Type = 'AW';</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E51">
+      <c r="E56" s="15">
         <v>53</v>
       </c>
-      <c r="I51">
+      <c r="H56">
+        <v>53</v>
+      </c>
+      <c r="I56">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s">
+        <v>143</v>
+      </c>
+      <c r="N56">
         <v>50</v>
       </c>
-      <c r="J51" s="13" t="s">
+      <c r="O56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K51" s="14" t="str">
+      <c r="P56" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AX</v>
       </c>
-      <c r="L51" t="s">
+      <c r="Q56" t="s">
         <v>118</v>
       </c>
-      <c r="M51" t="str">
+      <c r="R56" t="str">
         <f t="shared" si="1"/>
         <v>public string Room27Type = 'AX';</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E52">
+      <c r="E57" s="15">
         <v>54</v>
       </c>
-      <c r="I52">
+      <c r="F57" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="17">
+        <v>54</v>
+      </c>
+      <c r="I57" s="17">
+        <v>52</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N57">
         <v>51</v>
       </c>
-      <c r="J52" s="13" t="s">
+      <c r="O57" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K52" s="14" t="str">
+      <c r="P57" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AY</v>
       </c>
-      <c r="L52" t="s">
+      <c r="Q57" t="s">
         <v>118</v>
       </c>
-      <c r="M52" t="str">
+      <c r="R57" t="str">
         <f t="shared" si="1"/>
         <v>public string Parking Places - Covered = 'AY';</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E53">
+      <c r="E58" s="15">
         <v>55</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="I53">
+      <c r="F58" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" s="17">
+        <v>55</v>
+      </c>
+      <c r="I58" s="17">
+        <v>53</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N58">
         <v>52</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="O58" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K53" s="14" t="str">
+      <c r="P58" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AZ</v>
       </c>
-      <c r="L53" t="s">
+      <c r="Q58" t="s">
         <v>118</v>
       </c>
-      <c r="M53" t="str">
+      <c r="R58" t="str">
         <f t="shared" si="1"/>
         <v>public string Legal Description = 'AZ';</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E54">
+      <c r="E59" s="15">
         <v>56</v>
       </c>
-      <c r="I54">
+      <c r="H59">
+        <v>56</v>
+      </c>
+      <c r="I59">
+        <v>54</v>
+      </c>
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" t="s">
+        <v>143</v>
+      </c>
+      <c r="N59">
         <v>53</v>
       </c>
-      <c r="J54" s="13" t="s">
+      <c r="O59" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K54" s="14" t="str">
+      <c r="P59" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BA</v>
       </c>
-      <c r="L54" t="s">
+      <c r="Q59" t="s">
         <v>118</v>
       </c>
-      <c r="M54" t="str">
+      <c r="R59" t="str">
         <f t="shared" si="1"/>
         <v>public string Title to Land = 'BA';</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E55">
+      <c r="E60" s="15">
         <v>57</v>
       </c>
-      <c r="I55">
+      <c r="H60">
+        <v>57</v>
+      </c>
+      <c r="I60">
+        <v>55</v>
+      </c>
+      <c r="J60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K60" t="s">
+        <v>160</v>
+      </c>
+      <c r="N60">
         <v>54</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="O60" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K55" s="14" t="str">
+      <c r="P60" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BB</v>
       </c>
-      <c r="L55" t="s">
+      <c r="Q60" t="s">
         <v>118</v>
       </c>
-      <c r="M55" t="str">
+      <c r="R60" t="str">
         <f t="shared" si="1"/>
         <v>public string Units in Development = 'BB';</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E56">
+      <c r="E61" s="15">
         <v>58</v>
       </c>
-      <c r="I56">
+      <c r="F61" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="17">
+        <v>58</v>
+      </c>
+      <c r="I61" s="17">
+        <v>56</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N61">
         <v>55</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="O61" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="14" t="str">
+      <c r="P61" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BC</v>
       </c>
-      <c r="L56" t="s">
+      <c r="Q61" t="s">
         <v>118</v>
       </c>
-      <c r="M56" t="str">
+      <c r="R61" t="str">
         <f t="shared" si="1"/>
         <v>public string Stories in Building = 'BC';</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E57">
+      <c r="E62" s="15">
         <v>59</v>
       </c>
-      <c r="I57">
+      <c r="F62" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="17">
+        <v>59</v>
+      </c>
+      <c r="I62" s="17">
+        <v>57</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N62">
         <v>56</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="O62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="14" t="str">
+      <c r="P62" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BD</v>
       </c>
-      <c r="L57" t="s">
+      <c r="Q62" t="s">
         <v>118</v>
       </c>
-      <c r="M57" t="str">
+      <c r="R62" t="str">
         <f t="shared" si="1"/>
         <v>public string # or % of Rentals Allowed = 'BD';</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E58">
+      <c r="E63" s="15">
         <v>60</v>
       </c>
-      <c r="I58">
+      <c r="F63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" s="17">
+        <v>60</v>
+      </c>
+      <c r="I63" s="17">
+        <v>58</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N63">
         <v>57</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="O63" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K58" s="14" t="str">
+      <c r="P63" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BE</v>
       </c>
-      <c r="L58" t="s">
+      <c r="Q63" t="s">
         <v>118</v>
       </c>
-      <c r="M58" t="str">
+      <c r="R63" t="str">
         <f t="shared" si="1"/>
         <v>public string TotalPrkng = 'BE';</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E59">
+      <c r="E64" s="15">
         <v>61</v>
       </c>
-      <c r="I59">
+      <c r="F64" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="17">
+        <v>61</v>
+      </c>
+      <c r="I64" s="17">
+        <v>59</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N64">
         <v>58</v>
       </c>
-      <c r="J59" s="13" t="s">
+      <c r="O64" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="14" t="str">
+      <c r="P64" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BF</v>
       </c>
-      <c r="L59" t="s">
+      <c r="Q64" t="s">
         <v>118</v>
       </c>
-      <c r="M59" t="str">
+      <c r="R64" t="str">
         <f t="shared" si="1"/>
         <v>public string Locker = 'BF';</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E60">
+      <c r="E65" s="15">
         <v>62</v>
       </c>
-      <c r="I60">
+      <c r="H65">
+        <v>62</v>
+      </c>
+      <c r="I65">
+        <v>60</v>
+      </c>
+      <c r="J65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" t="s">
+        <v>143</v>
+      </c>
+      <c r="N65">
         <v>59</v>
       </c>
-      <c r="J60" s="13" t="s">
+      <c r="O65" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="14" t="str">
+      <c r="P65" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BG</v>
       </c>
-      <c r="L60" t="s">
+      <c r="Q65" t="s">
         <v>118</v>
       </c>
-      <c r="M60" t="str">
+      <c r="R65" t="str">
         <f t="shared" si="1"/>
         <v>public string List Firm 1 Code - Office Name = 'BG';</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E61">
+      <c r="E66" s="15">
         <v>63</v>
       </c>
-      <c r="I61">
+      <c r="H66">
+        <v>63</v>
+      </c>
+      <c r="I66">
+        <v>61</v>
+      </c>
+      <c r="J66" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" t="s">
+        <v>143</v>
+      </c>
+      <c r="N66">
         <v>60</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="O66" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K61" s="14" t="str">
+      <c r="P66" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BH</v>
       </c>
-      <c r="L61" t="s">
+      <c r="Q66" t="s">
         <v>118</v>
       </c>
-      <c r="M61" t="str">
+      <c r="R66" t="str">
         <f t="shared" si="1"/>
         <v>public string List Sales Rep 1 - Agent Name = 'BH';</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E62">
+      <c r="E67" s="15">
         <v>64</v>
       </c>
-      <c r="I62">
+      <c r="H67">
+        <v>64</v>
+      </c>
+      <c r="I67">
+        <v>62</v>
+      </c>
+      <c r="J67" t="s">
+        <v>54</v>
+      </c>
+      <c r="K67" t="s">
+        <v>162</v>
+      </c>
+      <c r="N67">
         <v>61</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="O67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K62" s="14" t="str">
+      <c r="P67" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BI</v>
       </c>
-      <c r="L62" t="s">
+      <c r="Q67" t="s">
         <v>118</v>
       </c>
-      <c r="M62" t="str">
+      <c r="R67" t="str">
         <f t="shared" si="1"/>
         <v>public string List Firm 2 Code - Office Name = 'BI';</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E63">
+      <c r="E68" s="15">
         <v>65</v>
       </c>
-      <c r="I63">
+      <c r="H68">
+        <v>65</v>
+      </c>
+      <c r="I68">
+        <v>63</v>
+      </c>
+      <c r="J68" t="s">
+        <v>180</v>
+      </c>
+      <c r="K68" t="s">
+        <v>163</v>
+      </c>
+      <c r="N68">
         <v>62</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="O68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="14" t="str">
+      <c r="P68" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BJ</v>
       </c>
-      <c r="L63" t="s">
+      <c r="Q68" t="s">
         <v>118</v>
       </c>
-      <c r="M63" t="str">
+      <c r="R68" t="str">
         <f t="shared" si="1"/>
         <v>public string List Sales Rep 2 - Agent Name = 'BJ';</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E64">
+      <c r="E69" s="15">
         <v>66</v>
       </c>
-      <c r="I64">
+      <c r="H69">
+        <v>66</v>
+      </c>
+      <c r="I69">
+        <v>64</v>
+      </c>
+      <c r="J69" t="s">
+        <v>56</v>
+      </c>
+      <c r="K69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N69">
         <v>63</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="O69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K64" s="14" t="str">
+      <c r="P69" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BK</v>
       </c>
-      <c r="L64" t="s">
+      <c r="Q69" t="s">
         <v>118</v>
       </c>
-      <c r="M64" t="str">
+      <c r="R69" t="str">
         <f t="shared" si="1"/>
         <v>public string Selling Office 1 - Office Name = 'BK';</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E65">
+      <c r="E70" s="15">
         <v>67</v>
       </c>
-      <c r="I65">
+      <c r="H70">
+        <v>67</v>
+      </c>
+      <c r="I70">
+        <v>65</v>
+      </c>
+      <c r="J70" t="s">
+        <v>181</v>
+      </c>
+      <c r="K70" t="s">
+        <v>143</v>
+      </c>
+      <c r="N70">
         <v>64</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="O70" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K65" s="14" t="str">
+      <c r="P70" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BL</v>
       </c>
-      <c r="L65" t="s">
+      <c r="Q70" t="s">
         <v>118</v>
       </c>
-      <c r="M65" t="str">
+      <c r="R70" t="str">
         <f t="shared" si="1"/>
         <v>public string Sell Sales Rep 1 - Agent Name = 'BL';</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E66">
+      <c r="E71" s="15">
         <v>68</v>
       </c>
-      <c r="I66">
+      <c r="H71">
+        <v>68</v>
+      </c>
+      <c r="I71">
+        <v>66</v>
+      </c>
+      <c r="J71" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71" t="s">
+        <v>143</v>
+      </c>
+      <c r="N71">
         <v>65</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="O71" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K66" s="14" t="str">
+      <c r="P71" s="14" t="str">
         <f t="shared" si="0"/>
         <v>BM</v>
       </c>
-      <c r="L66" t="s">
+      <c r="Q71" t="s">
         <v>118</v>
       </c>
-      <c r="M66" t="str">
+      <c r="R71" t="str">
         <f t="shared" si="1"/>
         <v>public string Selling Office 2 - Office Name = 'BM';</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E67">
+      <c r="E72" s="15">
         <v>69</v>
       </c>
-      <c r="I67">
+      <c r="H72">
+        <v>69</v>
+      </c>
+      <c r="I72">
+        <v>67</v>
+      </c>
+      <c r="J72" t="s">
+        <v>59</v>
+      </c>
+      <c r="K72" t="s">
+        <v>143</v>
+      </c>
+      <c r="N72">
         <v>66</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="O72" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K67" s="14" t="str">
-        <f t="shared" ref="K67:K69" si="6">SUBSTITUTE(ADDRESS(1,I67,4),"1","")</f>
+      <c r="P72" s="14" t="str">
+        <f t="shared" ref="P72:P74" si="6">SUBSTITUTE(ADDRESS(1,N72,4),"1","")</f>
         <v>BN</v>
       </c>
-      <c r="L67" t="s">
+      <c r="Q72" t="s">
         <v>118</v>
       </c>
-      <c r="M67" t="str">
-        <f t="shared" ref="M67:M69" si="7">CONCATENATE(L67, J67, " = ", "'", K67, "'", ";")</f>
+      <c r="R72" t="str">
+        <f t="shared" ref="R72:R74" si="7">CONCATENATE(Q72, O72, " = ", "'", P72, "'", ";")</f>
         <v>public string Sell Sales Rep 2 - Agent Name = 'BN';</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E68">
+      <c r="E73" s="15">
         <v>70</v>
       </c>
-      <c r="I68">
+      <c r="H73">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>68</v>
+      </c>
+      <c r="J73" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" t="s">
+        <v>143</v>
+      </c>
+      <c r="N73">
         <v>67</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="O73" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K68" s="14" t="str">
+      <c r="P73" s="14" t="str">
         <f t="shared" si="6"/>
         <v>BO</v>
       </c>
-      <c r="L68" t="s">
+      <c r="Q73" t="s">
         <v>118</v>
       </c>
-      <c r="M68" t="str">
+      <c r="R73" t="str">
         <f t="shared" si="7"/>
         <v>public string Owner Name = 'BO';</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E69">
+      <c r="E74" s="15">
         <v>71</v>
       </c>
-      <c r="I69">
+      <c r="H74">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>69</v>
+      </c>
+      <c r="J74" t="s">
+        <v>61</v>
+      </c>
+      <c r="K74" t="s">
+        <v>143</v>
+      </c>
+      <c r="N74">
         <v>68</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="O74" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K69" s="14" t="str">
+      <c r="P74" s="14" t="str">
         <f t="shared" si="6"/>
         <v>BP</v>
       </c>
-      <c r="L69" t="s">
+      <c r="Q74" t="s">
         <v>118</v>
       </c>
-      <c r="M69" t="str">
+      <c r="R74" t="str">
         <f t="shared" si="7"/>
         <v>public string Buyer = 'BP';</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E70">
+      <c r="E75" s="15">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="H75">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+      <c r="J75" t="s">
+        <v>62</v>
+      </c>
+      <c r="K75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E71">
+      <c r="E76" s="15">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="H76">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>71</v>
+      </c>
+      <c r="J76" t="s">
+        <v>63</v>
+      </c>
+      <c r="K76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D77" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E72">
+      <c r="E77" s="15">
         <v>74</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="17">
+        <v>74</v>
+      </c>
+      <c r="I77" s="17">
+        <v>72</v>
+      </c>
+      <c r="J77" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E73">
+      <c r="E78" s="15">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="H78" s="17">
+        <v>75</v>
+      </c>
+      <c r="I78" s="17">
+        <v>73</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E74">
+      <c r="E79" s="15">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="H79" s="17">
+        <v>76</v>
+      </c>
+      <c r="I79" s="17">
+        <v>74</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E75">
+      <c r="E80" s="15">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="H80" s="17">
+        <v>77</v>
+      </c>
+      <c r="I80" s="17">
+        <v>75</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E76">
+      <c r="E81" s="15">
         <v>78</v>
       </c>
+      <c r="H81" s="17">
+        <v>78</v>
+      </c>
+      <c r="I81" s="17">
+        <v>76</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>79</v>
+      </c>
+      <c r="I82">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s">
+        <v>182</v>
+      </c>
+      <c r="K82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s">
+        <v>183</v>
+      </c>
+      <c r="K83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>81</v>
+      </c>
+      <c r="I84">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s">
+        <v>184</v>
+      </c>
+      <c r="K84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H85" s="17">
+        <v>82</v>
+      </c>
+      <c r="I85" s="17">
+        <v>80</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H86" s="17">
+        <v>83</v>
+      </c>
+      <c r="I86" s="17">
+        <v>81</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="17">
+        <v>84</v>
+      </c>
+      <c r="I87" s="17">
+        <v>82</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K87" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H88" s="17">
+        <v>85</v>
+      </c>
+      <c r="I88" s="17">
+        <v>83</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H89" s="17">
+        <v>86</v>
+      </c>
+      <c r="I89" s="17">
+        <v>84</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H90" s="17">
+        <v>87</v>
+      </c>
+      <c r="I90" s="17">
+        <v>85</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H91" s="17">
+        <v>88</v>
+      </c>
+      <c r="I91" s="17">
+        <v>86</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H92" s="17">
+        <v>89</v>
+      </c>
+      <c r="I92" s="17">
+        <v>87</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H93" s="17">
+        <v>90</v>
+      </c>
+      <c r="I93" s="17">
+        <v>88</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H94" s="17">
+        <v>91</v>
+      </c>
+      <c r="I94" s="17">
+        <v>89</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H95" s="17">
+        <v>92</v>
+      </c>
+      <c r="I95" s="17">
+        <v>90</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>93</v>
+      </c>
+      <c r="I96">
+        <v>91</v>
+      </c>
+      <c r="J96" t="s">
+        <v>196</v>
+      </c>
+      <c r="K96" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/app/MLS_SpreadSheet_FieldsList.xlsx
+++ b/app/MLS_SpreadSheet_FieldsList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="210">
   <si>
     <t>PicCount</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>StrataFee: 21,</t>
+  </si>
+  <si>
+    <t>MaintenanceFeeInclude</t>
   </si>
 </sst>
 </file>
@@ -3101,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6957,16 +6960,28 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H96">
+      <c r="H96" s="17">
         <v>93</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="17">
         <v>91</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>94</v>
+      </c>
+      <c r="I97">
+        <v>92</v>
+      </c>
+      <c r="J97" t="s">
         <v>196</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K97" t="s">
         <v>174</v>
       </c>
     </row>

--- a/app/MLS_SpreadSheet_FieldsList.xlsx
+++ b/app/MLS_SpreadSheet_FieldsList.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ChromeX\MLSHelper\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B835EEF1-C0BC-4C42-BF5B-A35582DA2D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="150" windowWidth="27270" windowHeight="16965" activeTab="1"/>
+    <workbookView xWindow="-29010" yWindow="30" windowWidth="29040" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Spreadsheet View Fields" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="211">
   <si>
     <t>PicCount</t>
   </si>
@@ -653,12 +651,15 @@
   </si>
   <si>
     <t>MaintenanceFeeInclude</t>
+  </si>
+  <si>
+    <t>List Desig Agt 1 - Active Listings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1028,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1283,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1313,6 +1320,7 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1414,7 +1422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1447,9 +1455,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,6 +1507,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1657,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3103,11 +3145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3117,7 +3159,7 @@
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
     <col min="11" max="11" width="47.7109375" customWidth="1"/>
     <col min="15" max="15" width="23.28515625" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" customWidth="1"/>
@@ -6029,7 +6071,7 @@
         <v>58</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>143</v>
@@ -6615,7 +6657,7 @@
       <c r="I76">
         <v>71</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K76" t="s">
@@ -6731,14 +6773,14 @@
       <c r="I80" s="17">
         <v>75</v>
       </c>
-      <c r="J80" s="17" t="s">
+      <c r="J80" s="28" t="s">
         <v>48</v>
       </c>
       <c r="K80" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>74</v>
       </c>
@@ -6763,21 +6805,24 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H82">
         <v>79</v>
       </c>
       <c r="I82">
         <v>77</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="28" t="s">
         <v>182</v>
       </c>
       <c r="K82" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H83">
         <v>80</v>
       </c>
@@ -6791,7 +6836,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H84">
         <v>81</v>
       </c>
@@ -6805,7 +6850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H85" s="17">
         <v>82</v>
       </c>
@@ -6819,7 +6864,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H86" s="17">
         <v>83</v>
       </c>
@@ -6833,7 +6878,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H87" s="17">
         <v>84</v>
       </c>
@@ -6847,7 +6892,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H88" s="17">
         <v>85</v>
       </c>
@@ -6861,7 +6906,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H89" s="17">
         <v>86</v>
       </c>
@@ -6875,7 +6920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H90" s="17">
         <v>87</v>
       </c>
@@ -6889,7 +6934,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H91" s="17">
         <v>88</v>
       </c>
@@ -6903,7 +6948,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H92" s="17">
         <v>89</v>
       </c>
@@ -6917,7 +6962,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H93" s="17">
         <v>90</v>
       </c>
@@ -6931,7 +6976,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H94" s="17">
         <v>91</v>
       </c>
@@ -6945,7 +6990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H95" s="17">
         <v>92</v>
       </c>
@@ -6959,7 +7004,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H96" s="17">
         <v>93</v>
       </c>
